--- a/public/files.xlsx
+++ b/public/files.xlsx
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>Royaume du Maroc</t>
   </si>
@@ -526,7 +526,7 @@
     <t>Etat nominatif des Indéminité au Président  et aux Conseillers y Ayant Droit</t>
   </si>
   <si>
-    <t>DU 2024-01-01 AU 2024-11-30</t>
+    <t>DU 2024-02-01 AU 2024-03-31</t>
   </si>
   <si>
     <t>n°</t>
@@ -577,63 +577,63 @@
     <t>Indéminité au Président  et aux Conseillers y Ayant Droit</t>
   </si>
   <si>
+    <t>MOULAY EL GAIROUF</t>
+  </si>
+  <si>
+    <t>-0001-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF6742</t>
+  </si>
+  <si>
+    <t>021 430 0000170001070094 94</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>(Banque :BPA) (Ville : TAN TAN)</t>
+  </si>
+  <si>
+    <t>TAN-TAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 AV  LAJEUESSE TAN TAN </t>
+  </si>
+  <si>
+    <t>HICHAM BAITAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF43570</t>
+  </si>
+  <si>
+    <t>230 650 3296082211027300 02</t>
+  </si>
+  <si>
+    <t>CREDIT IMMOBILIER ET HOTELIER</t>
+  </si>
+  <si>
+    <t>90 RUE 04 HAY TIGUIRIA TAN-TAN</t>
+  </si>
+  <si>
     <t>HABIB LOUAMANE</t>
   </si>
   <si>
-    <t>1980-05-27</t>
-  </si>
-  <si>
-    <t>PRESEDENT COMMUNE</t>
-  </si>
-  <si>
-    <t>SH179390</t>
+    <t xml:space="preserve"> PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF26413</t>
   </si>
   <si>
     <t>101 650 2111182314130004 72</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>(Banque :BPA) (Ville : TAN TAN)</t>
-  </si>
-  <si>
-    <t>TAN-TAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 AV  LAJEUESSE TAN TAN </t>
-  </si>
-  <si>
-    <t>KJLMJK</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICE PRéSIDENT </t>
-  </si>
-  <si>
-    <t>KLMJKML</t>
-  </si>
-  <si>
-    <t>CREDIT IMMOBILIER ET HOTELIER</t>
-  </si>
-  <si>
-    <t>90 RUE 04 HAY TIGUIRIA TAN-TAN</t>
-  </si>
-  <si>
-    <t>AAAAA</t>
-  </si>
-  <si>
-    <t>2024-01-21</t>
-  </si>
-  <si>
-    <t>AAAA</t>
-  </si>
-  <si>
-    <t>kljlkjl</t>
-  </si>
-  <si>
     <t>CREDIT DU MAROC</t>
   </si>
   <si>
@@ -643,64 +643,244 @@
     <t>BLOC 01 HAY EL JADID TAN-TAN</t>
   </si>
   <si>
+    <t>EL BACHIR ABERKANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF21120</t>
+  </si>
+  <si>
+    <t>225 320 0171070116010123 10</t>
+  </si>
+  <si>
     <t>CREDIT AGRICOLE DU MAROC</t>
   </si>
   <si>
     <t>364 OUST ECOLE PRINCE MY ABDELLAH HAY SAHRA TAN-TAN</t>
   </si>
   <si>
+    <t>TAIB SAYAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>J152543</t>
+  </si>
+  <si>
+    <t>101 650 2111115127770061 75</t>
+  </si>
+  <si>
     <t>BANQUE CENTRALE POPULAIRE</t>
   </si>
   <si>
     <t>47 AV OUM LAACHAR TAN-TAN</t>
   </si>
   <si>
+    <t>MARYEM EZZAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF40845</t>
+  </si>
+  <si>
+    <t>230 650 4039931211027300 28</t>
+  </si>
+  <si>
     <t>Madame</t>
   </si>
   <si>
     <t>12 RUE 08 HAY AIN RAHMA TAN-TAN</t>
   </si>
   <si>
+    <t>NABILA LAGHZAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>SJ195532</t>
+  </si>
+  <si>
+    <t>230 650 4002731211027300 79</t>
+  </si>
+  <si>
     <t>28 HAY EL MASSIRA TAN-TAN</t>
   </si>
   <si>
+    <t>MAOULAININ AABID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECRETAIRE DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF12742</t>
+  </si>
+  <si>
+    <t>011 650 0000032000000167 01</t>
+  </si>
+  <si>
     <t>BMCE BANK</t>
   </si>
   <si>
     <t>13 HAY MASSIRA 02 TAN-TAN</t>
   </si>
   <si>
+    <t>GHAZZA MUSTAPHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICE SECRETAIRE  DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF31798</t>
+  </si>
+  <si>
+    <t>011650 000002200000615241</t>
+  </si>
+  <si>
     <t>BANK OF AFRICA</t>
   </si>
   <si>
     <t>434 HAY EL MASSIRA TAN-TAN</t>
   </si>
   <si>
+    <t>OUSAMA AFOUCHAL</t>
+  </si>
+  <si>
+    <t>PRESIDENT DE LA COMMISSION CHARGEE DES EQUIPEMENT PUBLICS ET DES SERVICES</t>
+  </si>
+  <si>
+    <t>JF42389</t>
+  </si>
+  <si>
+    <t>225 650 0117051836010120 64</t>
+  </si>
+  <si>
+    <t>SOUMIA GACHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICE PRESIDENT DE LA COMMISSION CHARGEE DES EQUIPEMENT PUBLICS ET DES SERVICES . </t>
+  </si>
+  <si>
+    <t>JF50267</t>
+  </si>
+  <si>
+    <t>230 650 2952813211027300 29</t>
+  </si>
+  <si>
     <t>madmoiselle</t>
   </si>
   <si>
     <t>31 RUE 15 HAY BIRANZARANE TAN-TAN</t>
   </si>
   <si>
+    <t>OMAR BOUZIANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESIDENT DE LA COMMISSION CHARGEE DES AFFAIRES SOCIALE, CULTURELLES SPORTIVES </t>
+  </si>
+  <si>
+    <t>G283537</t>
+  </si>
+  <si>
+    <t>230 650 2520940211027300 77</t>
+  </si>
+  <si>
     <t>15 BLOC 09 CITE MILITAIRE TAN-TAN</t>
   </si>
   <si>
+    <t>KHAIOUAL AHLBIHI</t>
+  </si>
+  <si>
+    <t>VICE PRESIDENT DE LA COMMISSION CHARGEE DES AFFAIRES SOCIALE, CULTURELLES SPORTIVES</t>
+  </si>
+  <si>
+    <t>JA86369</t>
+  </si>
+  <si>
+    <t>007 650 0007250000345 90</t>
+  </si>
+  <si>
     <t>ATTIJARIWAFA BANK</t>
   </si>
   <si>
     <t>428 HAY ENNAHDA TAN-TAN</t>
   </si>
   <si>
+    <t>EL MAHJOUB JAAFARI</t>
+  </si>
+  <si>
+    <t>PRESIDENT DE LA COMMISSION CHARGEE BUDGET; DES AFFAIRES FINANCIERS ET DE PROGRAMMATION</t>
+  </si>
+  <si>
+    <t>JF2933</t>
+  </si>
+  <si>
+    <t>011 650 0000022000003075 57</t>
+  </si>
+  <si>
     <t>BLOC 04 NR 12 HAY MOULAY RACHID 1ER TRANCHE LAAYOUNE</t>
   </si>
   <si>
+    <t>BRAHIM BOUAOULTAINE</t>
+  </si>
+  <si>
+    <t>SH116841</t>
+  </si>
+  <si>
+    <t>007 650 0007255000305205 61</t>
+  </si>
+  <si>
     <t>115 HAY ENNAHDA TAN-TAN</t>
   </si>
   <si>
+    <t>FATIMATOU AYOUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VICE PRESIDENT DE LA COMMISSION CHARGEE ET L URBANISME ET DE L ENVIRENNEMENT.
+</t>
+  </si>
+  <si>
+    <t>JZ380</t>
+  </si>
+  <si>
+    <t>230 650 4081132211027300 51</t>
+  </si>
+  <si>
     <t>13 BLOC 16 BD 30 HAY JADID TAN-TAN</t>
   </si>
   <si>
+    <t>CHADDAD CHABAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESIDENT DE LA COMMISSION DE L’ENVIRONNEMENT DT DU DEVELOPPMENT DURBALE .
+</t>
+  </si>
+  <si>
+    <t>JF38747</t>
+  </si>
+  <si>
+    <t>230 650 5806810211027300 05</t>
+  </si>
+  <si>
     <t>53 RUE 10 HAY BIR ANZARANE TAN-TAN</t>
+  </si>
+  <si>
+    <t>HALIMA AMGHAYAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICE PRESIDENT DE LA COMMISSION DE L’ENVIRONNEMENT DT DU DEVELOPPMENT DURBALE .
+</t>
+  </si>
+  <si>
+    <t>J154586</t>
+  </si>
+  <si>
+    <t>310 650 1027101601532701 11</t>
   </si>
   <si>
     <t>TRESORERIE PROVINCIAL</t>
@@ -1963,7 +2143,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="75">
-        <v>13200</v>
+        <v>5200</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>28</v>
@@ -1982,7 +2162,7 @@
       </c>
       <c r="O11" s="78">
         <f>I11</f>
-        <v>13200</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="12" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -1999,19 +2179,19 @@
         <v>32</v>
       </c>
       <c r="E12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="G12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="H12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>32</v>
-      </c>
       <c r="I12" s="43">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>28</v>
@@ -2030,7 +2210,7 @@
       </c>
       <c r="O12" s="78">
         <f>I12</f>
-        <v>4400</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="13" spans="1:61" customHeight="1" ht="50.1" s="34" customFormat="1">
@@ -2047,10 +2227,10 @@
         <v>38</v>
       </c>
       <c r="E13" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>25</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>40</v>
@@ -2059,7 +2239,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="43">
-        <v>13200</v>
+        <v>10800</v>
       </c>
       <c r="J13" s="42" t="s">
         <v>28</v>
@@ -2078,7 +2258,7 @@
       </c>
       <c r="O13" s="78">
         <f>I13</f>
-        <v>13200</v>
+        <v>10800</v>
       </c>
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
@@ -2131,80 +2311,128 @@
       <c r="A14" s="21">
         <v>4</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="43"/>
+      <c r="B14" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="43">
+        <v>5200</v>
+      </c>
       <c r="J14" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N14" s="47">
         <v>44565</v>
       </c>
       <c r="O14" s="78">
         <f>I14</f>
-        <v/>
+        <v>5200</v>
       </c>
     </row>
     <row r="15" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A15" s="21">
         <v>5</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="43"/>
+      <c r="B15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="43">
+        <v>5200</v>
+      </c>
       <c r="J15" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L15" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N15" s="47">
         <v>44566</v>
       </c>
       <c r="O15" s="78">
         <f>I15</f>
-        <v/>
+        <v>5200</v>
       </c>
     </row>
     <row r="16" spans="1:61" customHeight="1" ht="48" s="21" customFormat="1">
       <c r="A16" s="21">
         <v>6</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="43"/>
+      <c r="B16" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="43">
+        <v>5200</v>
+      </c>
       <c r="J16" s="51" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K16" s="52" t="s">
         <v>36</v>
@@ -2213,30 +2441,46 @@
         <v>30</v>
       </c>
       <c r="M16" s="52" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N16" s="47">
         <v>44567</v>
       </c>
       <c r="O16" s="78">
         <f>I16</f>
-        <v/>
+        <v>5200</v>
       </c>
     </row>
     <row r="17" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A17" s="21">
         <v>7</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="75"/>
+      <c r="B17" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="75">
+        <v>5200</v>
+      </c>
       <c r="J17" s="51" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K17" s="52" t="s">
         <v>36</v>
@@ -2245,89 +2489,137 @@
         <v>30</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="N17" s="47">
         <v>44568</v>
       </c>
       <c r="O17" s="78">
         <f>I17</f>
-        <v/>
+        <v>5200</v>
       </c>
     </row>
     <row r="18" spans="1:61" customHeight="1" ht="52.5" s="21" customFormat="1">
       <c r="A18" s="21">
         <v>8</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="75"/>
+      <c r="B18" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="75">
+        <v>2400</v>
+      </c>
       <c r="J18" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K18" s="52" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M18" s="52" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="N18" s="47">
         <v>44569</v>
       </c>
       <c r="O18" s="78">
         <f>I18</f>
-        <v/>
+        <v>2400</v>
       </c>
     </row>
     <row r="19" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A19" s="21">
         <v>9</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="76"/>
+      <c r="B19" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="76">
+        <v>1200</v>
+      </c>
       <c r="J19" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="L19" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N19" s="47">
         <v>44570</v>
       </c>
       <c r="O19" s="78">
         <f>I19</f>
-        <v/>
+        <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="76"/>
+      <c r="B20" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="76">
+        <v>2400</v>
+      </c>
       <c r="J20" s="51"/>
       <c r="K20" s="52"/>
       <c r="L20" s="51"/>
@@ -2335,23 +2627,39 @@
       <c r="N20" s="47"/>
       <c r="O20" s="78">
         <f>I20</f>
-        <v/>
+        <v>2400</v>
       </c>
     </row>
     <row r="21" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A21" s="21">
         <v>11</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="76"/>
+      <c r="B21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="76">
+        <v>1200</v>
+      </c>
       <c r="J21" s="51" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="K21" s="52" t="s">
         <v>36</v>
@@ -2360,28 +2668,44 @@
         <v>30</v>
       </c>
       <c r="M21" s="52" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="N21" s="47">
         <v>44572</v>
       </c>
       <c r="O21" s="78">
         <f>I21</f>
-        <v/>
+        <v>1200</v>
       </c>
     </row>
     <row r="22" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A22" s="21">
         <v>12</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="76"/>
+      <c r="B22" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="76">
+        <v>2400</v>
+      </c>
       <c r="J22" s="51" t="s">
         <v>28</v>
       </c>
@@ -2392,126 +2716,190 @@
         <v>30</v>
       </c>
       <c r="M22" s="52" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="N22" s="47">
         <v>44573</v>
       </c>
       <c r="O22" s="78">
         <f>I22</f>
-        <v/>
+        <v>2400</v>
       </c>
     </row>
     <row r="23" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A23" s="21">
         <v>13</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="76"/>
+      <c r="B23" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="76">
+        <v>1200</v>
+      </c>
       <c r="J23" s="51" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="K23" s="52" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="L23" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N23" s="47">
         <v>44574</v>
       </c>
       <c r="O23" s="78">
         <f>I23</f>
-        <v/>
+        <v>1200</v>
       </c>
     </row>
     <row r="24" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A24" s="21">
         <v>14</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="76"/>
+      <c r="B24" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="76">
+        <v>2400</v>
+      </c>
       <c r="J24" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K24" s="52" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M24" s="52" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="N24" s="47">
         <v>44575</v>
       </c>
       <c r="O24" s="78">
         <f>I24</f>
-        <v/>
+        <v>2400</v>
       </c>
     </row>
     <row r="25" spans="1:61" customHeight="1" ht="49.5" s="21" customFormat="1">
       <c r="A25" s="21">
         <v>16</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="76"/>
+      <c r="B25" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="76">
+        <v>2400</v>
+      </c>
       <c r="J25" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K25" s="52" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="L25" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="52" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="N25" s="47">
         <v>44577</v>
       </c>
       <c r="O25" s="78">
         <f>I25</f>
-        <v/>
+        <v>2400</v>
       </c>
     </row>
     <row r="26" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A26" s="21">
         <v>17</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="76"/>
+      <c r="B26" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="76">
+        <v>1200</v>
+      </c>
       <c r="J26" s="51" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K26" s="52" t="s">
         <v>36</v>
@@ -2520,28 +2908,44 @@
         <v>30</v>
       </c>
       <c r="M26" s="52" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="N26" s="47">
         <v>44578</v>
       </c>
       <c r="O26" s="78">
         <f>I26</f>
-        <v/>
+        <v>1200</v>
       </c>
     </row>
     <row r="27" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A27" s="21">
         <v>18</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="76"/>
+      <c r="B27" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="76">
+        <v>2400</v>
+      </c>
       <c r="J27" s="51" t="s">
         <v>28</v>
       </c>
@@ -2552,51 +2956,67 @@
         <v>30</v>
       </c>
       <c r="M27" s="52" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="N27" s="47">
         <v>44579</v>
       </c>
       <c r="O27" s="78">
         <f>I27</f>
-        <v/>
+        <v>2400</v>
       </c>
     </row>
     <row r="28" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
       <c r="A28" s="21">
         <v>19</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="77"/>
+      <c r="B28" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="77">
+        <v>1200</v>
+      </c>
       <c r="J28" s="51" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K28" s="52" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="L28" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="52" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="N28" s="47">
         <v>44580</v>
       </c>
       <c r="O28" s="78">
         <f>I28</f>
-        <v/>
+        <v>1200</v>
       </c>
     </row>
     <row r="29" spans="1:61" customHeight="1" ht="36.75" s="8" customFormat="1">
       <c r="B29" s="86" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
@@ -2606,7 +3026,7 @@
       <c r="H29" s="87"/>
       <c r="I29" s="54">
         <f>SUM(I11:I28)</f>
-        <v>30800</v>
+        <v>62400</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="56"/>
@@ -2615,7 +3035,7 @@
       <c r="N29" s="57"/>
       <c r="O29" s="79">
         <f>SUM(O11:O28)</f>
-        <v>30800</v>
+        <v>62400</v>
       </c>
     </row>
     <row r="30" spans="1:61" customHeight="1" ht="15" s="8" customFormat="1">
@@ -2636,7 +3056,7 @@
     <row r="31" spans="1:61" customHeight="1" ht="24.95" s="8" customFormat="1">
       <c r="B31" s="61"/>
       <c r="C31" s="88" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="D31" s="88"/>
       <c r="E31" s="88"/>
@@ -2652,7 +3072,7 @@
     </row>
     <row r="32" spans="1:61" customHeight="1" ht="24.95" s="8" customFormat="1">
       <c r="B32" s="61" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C32" s="89" t="e">
         <f>chiffrelettre(I29)</f>
@@ -2676,7 +3096,7 @@
       <c r="D33" s="65"/>
       <c r="E33" s="64"/>
       <c r="F33" s="81" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
@@ -2702,27 +3122,27 @@
       </c>
       <c r="D34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,4,0)</f>
-        <v>HABIB LOUAMANE</v>
+        <v>MOULAY EL GAIROUF</v>
       </c>
       <c r="E34" s="68" t="str">
         <f>VLOOKUP(A34,Base_Membres,5,0)</f>
-        <v>1980-05-27</v>
+        <v>-0001-11-30</v>
       </c>
       <c r="F34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,6,0)</f>
-        <v>PRESEDENT COMMUNE</v>
+        <v>2 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </v>
       </c>
       <c r="G34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,7,0)</f>
-        <v>SH179390</v>
+        <v>JF6742</v>
       </c>
       <c r="H34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,8,0)</f>
-        <v>101 650 2111182314130004 72</v>
+        <v>021 430 0000170001070094 94</v>
       </c>
       <c r="I34" s="67">
         <f>VLOOKUP(A34,Base_Membres,9,0)</f>
-        <v>13200</v>
+        <v>5200</v>
       </c>
       <c r="J34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,10,0)</f>
@@ -2798,7 +3218,7 @@
       <c r="F38" s="63"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="I38" s="63"/>
       <c r="J38" s="63"/>

--- a/public/files.xlsx
+++ b/public/files.xlsx
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>Royaume du Maroc</t>
   </si>
@@ -526,7 +526,7 @@
     <t>Etat nominatif des Indéminité au Président  et aux Conseillers y Ayant Droit</t>
   </si>
   <si>
-    <t>DU 2024-02-01 AU 2024-03-31</t>
+    <t>DU 2024-01-01 AU 2024-01-31</t>
   </si>
   <si>
     <t>n°</t>
@@ -577,10 +577,58 @@
     <t>Indéminité au Président  et aux Conseillers y Ayant Droit</t>
   </si>
   <si>
+    <t>HABIB LOUAMANE</t>
+  </si>
+  <si>
+    <t>1980-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF26413</t>
+  </si>
+  <si>
+    <t>101 650 2111182314130004 72</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>(Banque :BPA) (Ville : TAN TAN)</t>
+  </si>
+  <si>
+    <t>TAN-TAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 AV  LAJEUESSE TAN TAN </t>
+  </si>
+  <si>
+    <t>HICHAM BAITAH</t>
+  </si>
+  <si>
+    <t>1992-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
+  </si>
+  <si>
+    <t>JF43570</t>
+  </si>
+  <si>
+    <t>230 650 3296082211027300 02</t>
+  </si>
+  <si>
+    <t>CREDIT IMMOBILIER ET HOTELIER</t>
+  </si>
+  <si>
+    <t>90 RUE 04 HAY TIGUIRIA TAN-TAN</t>
+  </si>
+  <si>
     <t>MOULAY EL GAIROUF</t>
   </si>
   <si>
-    <t>-0001-11-30</t>
+    <t>1967-08-03</t>
   </si>
   <si>
     <t xml:space="preserve">2 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
@@ -592,48 +640,6 @@
     <t>021 430 0000170001070094 94</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>(Banque :BPA) (Ville : TAN TAN)</t>
-  </si>
-  <si>
-    <t>TAN-TAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 AV  LAJEUESSE TAN TAN </t>
-  </si>
-  <si>
-    <t>HICHAM BAITAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
-  </si>
-  <si>
-    <t>JF43570</t>
-  </si>
-  <si>
-    <t>230 650 3296082211027300 02</t>
-  </si>
-  <si>
-    <t>CREDIT IMMOBILIER ET HOTELIER</t>
-  </si>
-  <si>
-    <t>90 RUE 04 HAY TIGUIRIA TAN-TAN</t>
-  </si>
-  <si>
-    <t>HABIB LOUAMANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
-  </si>
-  <si>
-    <t>JF26413</t>
-  </si>
-  <si>
-    <t>101 650 2111182314130004 72</t>
-  </si>
-  <si>
     <t>CREDIT DU MAROC</t>
   </si>
   <si>
@@ -646,6 +652,9 @@
     <t>EL BACHIR ABERKANE</t>
   </si>
   <si>
+    <t>1977-04-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -664,6 +673,9 @@
     <t>TAIB SAYAD</t>
   </si>
   <si>
+    <t>1963-01-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -682,6 +694,9 @@
     <t>MARYEM EZZAH</t>
   </si>
   <si>
+    <t>1986-07-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -700,6 +715,9 @@
     <t>NABILA LAGHZAL</t>
   </si>
   <si>
+    <t>1987-05-17</t>
+  </si>
+  <si>
     <t xml:space="preserve">6 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -715,6 +733,9 @@
     <t>MAOULAININ AABID</t>
   </si>
   <si>
+    <t>1972-01-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">SECRETAIRE DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -733,6 +754,9 @@
     <t>GHAZZA MUSTAPHA</t>
   </si>
   <si>
+    <t>1984-01-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">VICE SECRETAIRE  DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -751,6 +775,9 @@
     <t>OUSAMA AFOUCHAL</t>
   </si>
   <si>
+    <t>1988-04-15</t>
+  </si>
+  <si>
     <t>PRESIDENT DE LA COMMISSION CHARGEE DES EQUIPEMENT PUBLICS ET DES SERVICES</t>
   </si>
   <si>
@@ -763,6 +790,9 @@
     <t>SOUMIA GACHE</t>
   </si>
   <si>
+    <t>1993-08-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">VICE PRESIDENT DE LA COMMISSION CHARGEE DES EQUIPEMENT PUBLICS ET DES SERVICES . </t>
   </si>
   <si>
@@ -781,6 +811,9 @@
     <t>OMAR BOUZIANE</t>
   </si>
   <si>
+    <t>1979-09-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRESIDENT DE LA COMMISSION CHARGEE DES AFFAIRES SOCIALE, CULTURELLES SPORTIVES </t>
   </si>
   <si>
@@ -796,6 +829,9 @@
     <t>KHAIOUAL AHLBIHI</t>
   </si>
   <si>
+    <t>1981-06-01</t>
+  </si>
+  <si>
     <t>VICE PRESIDENT DE LA COMMISSION CHARGEE DES AFFAIRES SOCIALE, CULTURELLES SPORTIVES</t>
   </si>
   <si>
@@ -814,6 +850,9 @@
     <t>EL MAHJOUB JAAFARI</t>
   </si>
   <si>
+    <t>1966-10-02</t>
+  </si>
+  <si>
     <t>PRESIDENT DE LA COMMISSION CHARGEE BUDGET; DES AFFAIRES FINANCIERS ET DE PROGRAMMATION</t>
   </si>
   <si>
@@ -829,6 +868,9 @@
     <t>BRAHIM BOUAOULTAINE</t>
   </si>
   <si>
+    <t>1980-12-15</t>
+  </si>
+  <si>
     <t>SH116841</t>
   </si>
   <si>
@@ -839,6 +881,9 @@
   </si>
   <si>
     <t>FATIMATOU AYOUB</t>
+  </si>
+  <si>
+    <t>1987-02-20</t>
   </si>
   <si>
     <t xml:space="preserve"> VICE PRESIDENT DE LA COMMISSION CHARGEE ET L URBANISME ET DE L ENVIRENNEMENT.
@@ -857,6 +902,9 @@
     <t>CHADDAD CHABAH</t>
   </si>
   <si>
+    <t>1987-08-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRESIDENT DE LA COMMISSION DE L’ENVIRONNEMENT DT DU DEVELOPPMENT DURBALE .
 </t>
   </si>
@@ -871,6 +919,9 @@
   </si>
   <si>
     <t>HALIMA AMGHAYAR</t>
+  </si>
+  <si>
+    <t>1962-03-04</t>
   </si>
   <si>
     <t xml:space="preserve">VICE PRESIDENT DE LA COMMISSION DE L’ENVIRONNEMENT DT DU DEVELOPPMENT DURBALE .
@@ -2143,7 +2194,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="75">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>28</v>
@@ -2162,7 +2213,7 @@
       </c>
       <c r="O11" s="78">
         <f>I11</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="12" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2179,38 +2230,38 @@
         <v>32</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="43">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L12" s="28" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12" s="25">
         <v>44563</v>
       </c>
       <c r="O12" s="78">
         <f>I12</f>
-        <v>5200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="13" spans="1:61" customHeight="1" ht="50.1" s="34" customFormat="1">
@@ -2224,41 +2275,41 @@
         <v>22</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I13" s="43">
-        <v>10800</v>
+        <v>2600</v>
       </c>
       <c r="J13" s="42" t="s">
         <v>28</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N13" s="38">
         <v>44564</v>
       </c>
       <c r="O13" s="78">
         <f>I13</f>
-        <v>10800</v>
+        <v>2600</v>
       </c>
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
@@ -2318,41 +2369,41 @@
         <v>22</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I14" s="43">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="J14" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N14" s="47">
         <v>44565</v>
       </c>
       <c r="O14" s="78">
         <f>I14</f>
-        <v>5200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="15" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2366,41 +2417,41 @@
         <v>22</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I15" s="43">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="J15" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L15" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N15" s="47">
         <v>44566</v>
       </c>
       <c r="O15" s="78">
         <f>I15</f>
-        <v>5200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="16" spans="1:61" customHeight="1" ht="48" s="21" customFormat="1">
@@ -2414,41 +2465,41 @@
         <v>22</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I16" s="43">
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K16" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L16" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M16" s="52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N16" s="47">
         <v>44567</v>
       </c>
       <c r="O16" s="78">
         <f>I16</f>
-        <v>5200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="17" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2462,41 +2513,41 @@
         <v>22</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H17" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="75">
+        <v>2600</v>
+      </c>
+      <c r="J17" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="75">
-        <v>5200</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>61</v>
-      </c>
       <c r="K17" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L17" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N17" s="47">
         <v>44568</v>
       </c>
       <c r="O17" s="78">
         <f>I17</f>
-        <v>5200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="18" spans="1:61" customHeight="1" ht="52.5" s="21" customFormat="1">
@@ -2510,41 +2561,41 @@
         <v>22</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I18" s="75">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="J18" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K18" s="52" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M18" s="52" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N18" s="47">
         <v>44569</v>
       </c>
       <c r="O18" s="78">
         <f>I18</f>
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2558,41 +2609,41 @@
         <v>22</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I19" s="76">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="J19" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L19" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N19" s="47">
         <v>44570</v>
       </c>
       <c r="O19" s="78">
         <f>I19</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2603,22 +2654,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F20" s="74" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I20" s="76">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="J20" s="51"/>
       <c r="K20" s="52"/>
@@ -2627,7 +2678,7 @@
       <c r="N20" s="47"/>
       <c r="O20" s="78">
         <f>I20</f>
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2641,41 +2692,41 @@
         <v>22</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I21" s="76">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K21" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L21" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M21" s="52" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="N21" s="47">
         <v>44572</v>
       </c>
       <c r="O21" s="78">
         <f>I21</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2689,41 +2740,41 @@
         <v>22</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I22" s="76">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K22" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L22" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M22" s="52" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N22" s="47">
         <v>44573</v>
       </c>
       <c r="O22" s="78">
         <f>I22</f>
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="23" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2737,41 +2788,41 @@
         <v>22</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H23" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="76">
+        <v>600</v>
+      </c>
+      <c r="J23" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="76">
-        <v>1200</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>88</v>
-      </c>
       <c r="K23" s="52" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L23" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="N23" s="47">
         <v>44574</v>
       </c>
       <c r="O23" s="78">
         <f>I23</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2785,41 +2836,41 @@
         <v>22</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I24" s="76">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="J24" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K24" s="52" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M24" s="52" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="N24" s="47">
         <v>44575</v>
       </c>
       <c r="O24" s="78">
         <f>I24</f>
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="1:61" customHeight="1" ht="49.5" s="21" customFormat="1">
@@ -2833,41 +2884,41 @@
         <v>22</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I25" s="76">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="J25" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K25" s="52" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L25" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="52" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N25" s="47">
         <v>44577</v>
       </c>
       <c r="O25" s="78">
         <f>I25</f>
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="26" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2881,41 +2932,41 @@
         <v>22</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I26" s="76">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K26" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L26" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M26" s="52" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="N26" s="47">
         <v>44578</v>
       </c>
       <c r="O26" s="78">
         <f>I26</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2929,41 +2980,41 @@
         <v>22</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="I27" s="76">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="J27" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="52" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="N27" s="47">
         <v>44579</v>
       </c>
       <c r="O27" s="78">
         <f>I27</f>
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2977,46 +3028,46 @@
         <v>22</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I28" s="77">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K28" s="52" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="L28" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="52" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="N28" s="47">
         <v>44580</v>
       </c>
       <c r="O28" s="78">
         <f>I28</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:61" customHeight="1" ht="36.75" s="8" customFormat="1">
       <c r="B29" s="86" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
@@ -3026,7 +3077,7 @@
       <c r="H29" s="87"/>
       <c r="I29" s="54">
         <f>SUM(I11:I28)</f>
-        <v>62400</v>
+        <v>31200</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="56"/>
@@ -3035,7 +3086,7 @@
       <c r="N29" s="57"/>
       <c r="O29" s="79">
         <f>SUM(O11:O28)</f>
-        <v>62400</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="30" spans="1:61" customHeight="1" ht="15" s="8" customFormat="1">
@@ -3056,7 +3107,7 @@
     <row r="31" spans="1:61" customHeight="1" ht="24.95" s="8" customFormat="1">
       <c r="B31" s="61"/>
       <c r="C31" s="88" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D31" s="88"/>
       <c r="E31" s="88"/>
@@ -3072,7 +3123,7 @@
     </row>
     <row r="32" spans="1:61" customHeight="1" ht="24.95" s="8" customFormat="1">
       <c r="B32" s="61" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C32" s="89" t="e">
         <f>chiffrelettre(I29)</f>
@@ -3096,7 +3147,7 @@
       <c r="D33" s="65"/>
       <c r="E33" s="64"/>
       <c r="F33" s="81" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
@@ -3122,27 +3173,27 @@
       </c>
       <c r="D34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,4,0)</f>
-        <v>MOULAY EL GAIROUF</v>
+        <v>HABIB LOUAMANE</v>
       </c>
       <c r="E34" s="68" t="str">
         <f>VLOOKUP(A34,Base_Membres,5,0)</f>
-        <v>-0001-11-30</v>
+        <v>1980-05-27</v>
       </c>
       <c r="F34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,6,0)</f>
-        <v>2 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </v>
+        <v> PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </v>
       </c>
       <c r="G34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,7,0)</f>
-        <v>JF6742</v>
+        <v>JF26413</v>
       </c>
       <c r="H34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,8,0)</f>
-        <v>021 430 0000170001070094 94</v>
+        <v>101 650 2111182314130004 72</v>
       </c>
       <c r="I34" s="67">
         <f>VLOOKUP(A34,Base_Membres,9,0)</f>
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,10,0)</f>
@@ -3218,7 +3269,7 @@
       <c r="F38" s="63"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I38" s="63"/>
       <c r="J38" s="63"/>

--- a/public/files.xlsx
+++ b/public/files.xlsx
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>Royaume du Maroc</t>
   </si>
@@ -526,7 +526,7 @@
     <t>Etat nominatif des Indéminité au Président  et aux Conseillers y Ayant Droit</t>
   </si>
   <si>
-    <t>DU 2024-02-01 AU 2024-03-31</t>
+    <t>DU 2024-01-01 AU 2024-03-31</t>
   </si>
   <si>
     <t>n°</t>
@@ -580,7 +580,7 @@
     <t>MOULAY EL GAIROUF</t>
   </si>
   <si>
-    <t>-0001-11-30</t>
+    <t>1967-08-03</t>
   </si>
   <si>
     <t xml:space="preserve">2 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
@@ -607,6 +607,9 @@
     <t>HICHAM BAITAH</t>
   </si>
   <si>
+    <t>1992-01-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -625,6 +628,9 @@
     <t>HABIB LOUAMANE</t>
   </si>
   <si>
+    <t>1980-05-27</t>
+  </si>
+  <si>
     <t xml:space="preserve"> PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -646,6 +652,9 @@
     <t>EL BACHIR ABERKANE</t>
   </si>
   <si>
+    <t>1977-04-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -664,6 +673,9 @@
     <t>TAIB SAYAD</t>
   </si>
   <si>
+    <t>1963-01-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -682,6 +694,9 @@
     <t>MARYEM EZZAH</t>
   </si>
   <si>
+    <t>1986-07-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -700,6 +715,9 @@
     <t>NABILA LAGHZAL</t>
   </si>
   <si>
+    <t>1987-05-17</t>
+  </si>
+  <si>
     <t xml:space="preserve">6 ER VICE PRESIDENT DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -715,6 +733,9 @@
     <t>MAOULAININ AABID</t>
   </si>
   <si>
+    <t>1972-01-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">SECRETAIRE DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -733,6 +754,9 @@
     <t>GHAZZA MUSTAPHA</t>
   </si>
   <si>
+    <t>1984-01-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">VICE SECRETAIRE  DU CONSEIL COMMUNAL DE TAN-TAN </t>
   </si>
   <si>
@@ -751,6 +775,9 @@
     <t>OUSAMA AFOUCHAL</t>
   </si>
   <si>
+    <t>1988-04-15</t>
+  </si>
+  <si>
     <t>PRESIDENT DE LA COMMISSION CHARGEE DES EQUIPEMENT PUBLICS ET DES SERVICES</t>
   </si>
   <si>
@@ -763,6 +790,9 @@
     <t>SOUMIA GACHE</t>
   </si>
   <si>
+    <t>1993-08-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">VICE PRESIDENT DE LA COMMISSION CHARGEE DES EQUIPEMENT PUBLICS ET DES SERVICES . </t>
   </si>
   <si>
@@ -781,6 +811,9 @@
     <t>OMAR BOUZIANE</t>
   </si>
   <si>
+    <t>1979-09-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRESIDENT DE LA COMMISSION CHARGEE DES AFFAIRES SOCIALE, CULTURELLES SPORTIVES </t>
   </si>
   <si>
@@ -796,6 +829,9 @@
     <t>KHAIOUAL AHLBIHI</t>
   </si>
   <si>
+    <t>1981-06-01</t>
+  </si>
+  <si>
     <t>VICE PRESIDENT DE LA COMMISSION CHARGEE DES AFFAIRES SOCIALE, CULTURELLES SPORTIVES</t>
   </si>
   <si>
@@ -814,6 +850,9 @@
     <t>EL MAHJOUB JAAFARI</t>
   </si>
   <si>
+    <t>1966-10-02</t>
+  </si>
+  <si>
     <t>PRESIDENT DE LA COMMISSION CHARGEE BUDGET; DES AFFAIRES FINANCIERS ET DE PROGRAMMATION</t>
   </si>
   <si>
@@ -829,6 +868,9 @@
     <t>BRAHIM BOUAOULTAINE</t>
   </si>
   <si>
+    <t>1980-12-15</t>
+  </si>
+  <si>
     <t>SH116841</t>
   </si>
   <si>
@@ -839,6 +881,9 @@
   </si>
   <si>
     <t>FATIMATOU AYOUB</t>
+  </si>
+  <si>
+    <t>1987-02-20</t>
   </si>
   <si>
     <t xml:space="preserve"> VICE PRESIDENT DE LA COMMISSION CHARGEE ET L URBANISME ET DE L ENVIRENNEMENT.
@@ -857,6 +902,9 @@
     <t>CHADDAD CHABAH</t>
   </si>
   <si>
+    <t>1987-08-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRESIDENT DE LA COMMISSION DE L’ENVIRONNEMENT DT DU DEVELOPPMENT DURBALE .
 </t>
   </si>
@@ -871,6 +919,9 @@
   </si>
   <si>
     <t>HALIMA AMGHAYAR</t>
+  </si>
+  <si>
+    <t>1962-03-04</t>
   </si>
   <si>
     <t xml:space="preserve">VICE PRESIDENT DE LA COMMISSION DE L’ENVIRONNEMENT DT DU DEVELOPPMENT DURBALE .
@@ -2143,7 +2194,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="75">
-        <v>5200</v>
+        <v>7800</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>28</v>
@@ -2162,7 +2213,7 @@
       </c>
       <c r="O11" s="78">
         <f>I11</f>
-        <v>5200</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="12" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2179,38 +2230,38 @@
         <v>32</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="43">
-        <v>5200</v>
+        <v>7800</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L12" s="28" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12" s="25">
         <v>44563</v>
       </c>
       <c r="O12" s="78">
         <f>I12</f>
-        <v>5200</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="13" spans="1:61" customHeight="1" ht="50.1" s="34" customFormat="1">
@@ -2224,41 +2275,41 @@
         <v>22</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I13" s="43">
-        <v>10800</v>
+        <v>16200</v>
       </c>
       <c r="J13" s="42" t="s">
         <v>28</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N13" s="38">
         <v>44564</v>
       </c>
       <c r="O13" s="78">
         <f>I13</f>
-        <v>10800</v>
+        <v>16200</v>
       </c>
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
@@ -2318,41 +2369,41 @@
         <v>22</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F14" s="74" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I14" s="43">
-        <v>5200</v>
+        <v>7800</v>
       </c>
       <c r="J14" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L14" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N14" s="47">
         <v>44565</v>
       </c>
       <c r="O14" s="78">
         <f>I14</f>
-        <v>5200</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="15" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2366,41 +2417,41 @@
         <v>22</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I15" s="43">
-        <v>5200</v>
+        <v>7800</v>
       </c>
       <c r="J15" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L15" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N15" s="47">
         <v>44566</v>
       </c>
       <c r="O15" s="78">
         <f>I15</f>
-        <v>5200</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="16" spans="1:61" customHeight="1" ht="48" s="21" customFormat="1">
@@ -2414,41 +2465,41 @@
         <v>22</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I16" s="43">
-        <v>5200</v>
+        <v>7800</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K16" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L16" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M16" s="52" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N16" s="47">
         <v>44567</v>
       </c>
       <c r="O16" s="78">
         <f>I16</f>
-        <v>5200</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="17" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2462,41 +2513,41 @@
         <v>22</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H17" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="75">
+        <v>7800</v>
+      </c>
+      <c r="J17" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="75">
-        <v>5200</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>61</v>
-      </c>
       <c r="K17" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L17" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="N17" s="47">
         <v>44568</v>
       </c>
       <c r="O17" s="78">
         <f>I17</f>
-        <v>5200</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="18" spans="1:61" customHeight="1" ht="52.5" s="21" customFormat="1">
@@ -2510,41 +2561,41 @@
         <v>22</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F18" s="74" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I18" s="75">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="J18" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K18" s="52" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L18" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M18" s="52" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N18" s="47">
         <v>44569</v>
       </c>
       <c r="O18" s="78">
         <f>I18</f>
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="19" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2558,41 +2609,41 @@
         <v>22</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I19" s="76">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="J19" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L19" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N19" s="47">
         <v>44570</v>
       </c>
       <c r="O19" s="78">
         <f>I19</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="20" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2603,22 +2654,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F20" s="74" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I20" s="76">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="J20" s="51"/>
       <c r="K20" s="52"/>
@@ -2627,7 +2678,7 @@
       <c r="N20" s="47"/>
       <c r="O20" s="78">
         <f>I20</f>
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="21" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2641,41 +2692,41 @@
         <v>22</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I21" s="76">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K21" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L21" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M21" s="52" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="N21" s="47">
         <v>44572</v>
       </c>
       <c r="O21" s="78">
         <f>I21</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="22" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2689,41 +2740,41 @@
         <v>22</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I22" s="76">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="J22" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K22" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L22" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M22" s="52" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N22" s="47">
         <v>44573</v>
       </c>
       <c r="O22" s="78">
         <f>I22</f>
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="23" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2737,41 +2788,41 @@
         <v>22</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H23" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="76">
+        <v>1800</v>
+      </c>
+      <c r="J23" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="76">
-        <v>1200</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>88</v>
-      </c>
       <c r="K23" s="52" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L23" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="52" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="N23" s="47">
         <v>44574</v>
       </c>
       <c r="O23" s="78">
         <f>I23</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="24" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2785,41 +2836,41 @@
         <v>22</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I24" s="76">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="J24" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K24" s="52" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L24" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M24" s="52" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="N24" s="47">
         <v>44575</v>
       </c>
       <c r="O24" s="78">
         <f>I24</f>
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="25" spans="1:61" customHeight="1" ht="49.5" s="21" customFormat="1">
@@ -2833,41 +2884,41 @@
         <v>22</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="I25" s="76">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="J25" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K25" s="52" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L25" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="52" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N25" s="47">
         <v>44577</v>
       </c>
       <c r="O25" s="78">
         <f>I25</f>
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="26" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2881,41 +2932,41 @@
         <v>22</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I26" s="76">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K26" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L26" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M26" s="52" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="N26" s="47">
         <v>44578</v>
       </c>
       <c r="O26" s="78">
         <f>I26</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="27" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2929,41 +2980,41 @@
         <v>22</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="I27" s="76">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="J27" s="51" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="52" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="N27" s="47">
         <v>44579</v>
       </c>
       <c r="O27" s="78">
         <f>I27</f>
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="28" spans="1:61" customHeight="1" ht="50.1" s="21" customFormat="1">
@@ -2977,46 +3028,46 @@
         <v>22</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I28" s="77">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K28" s="52" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="L28" s="51" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="52" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="N28" s="47">
         <v>44580</v>
       </c>
       <c r="O28" s="78">
         <f>I28</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="29" spans="1:61" customHeight="1" ht="36.75" s="8" customFormat="1">
       <c r="B29" s="86" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
@@ -3026,7 +3077,7 @@
       <c r="H29" s="87"/>
       <c r="I29" s="54">
         <f>SUM(I11:I28)</f>
-        <v>62400</v>
+        <v>93600</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="56"/>
@@ -3035,7 +3086,7 @@
       <c r="N29" s="57"/>
       <c r="O29" s="79">
         <f>SUM(O11:O28)</f>
-        <v>62400</v>
+        <v>93600</v>
       </c>
     </row>
     <row r="30" spans="1:61" customHeight="1" ht="15" s="8" customFormat="1">
@@ -3056,7 +3107,7 @@
     <row r="31" spans="1:61" customHeight="1" ht="24.95" s="8" customFormat="1">
       <c r="B31" s="61"/>
       <c r="C31" s="88" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D31" s="88"/>
       <c r="E31" s="88"/>
@@ -3072,7 +3123,7 @@
     </row>
     <row r="32" spans="1:61" customHeight="1" ht="24.95" s="8" customFormat="1">
       <c r="B32" s="61" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C32" s="89" t="e">
         <f>chiffrelettre(I29)</f>
@@ -3096,7 +3147,7 @@
       <c r="D33" s="65"/>
       <c r="E33" s="64"/>
       <c r="F33" s="81" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G33" s="81"/>
       <c r="H33" s="81"/>
@@ -3126,7 +3177,7 @@
       </c>
       <c r="E34" s="68" t="str">
         <f>VLOOKUP(A34,Base_Membres,5,0)</f>
-        <v>-0001-11-30</v>
+        <v>1967-08-03</v>
       </c>
       <c r="F34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,6,0)</f>
@@ -3142,7 +3193,7 @@
       </c>
       <c r="I34" s="67">
         <f>VLOOKUP(A34,Base_Membres,9,0)</f>
-        <v>5200</v>
+        <v>7800</v>
       </c>
       <c r="J34" s="67" t="str">
         <f>VLOOKUP(A34,Base_Membres,10,0)</f>
@@ -3218,7 +3269,7 @@
       <c r="F38" s="63"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I38" s="63"/>
       <c r="J38" s="63"/>

--- a/public/files.xlsx
+++ b/public/files.xlsx
@@ -3125,9 +3125,8 @@
       <c r="B32" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="89" t="e">
-        <f>chiffrelettre(I29)</f>
-        <v>#NAME?</v>
+      <c r="C32" s="89">
+        <v>31200</v>
       </c>
       <c r="D32" s="89"/>
       <c r="E32" s="89"/>
